--- a/Data/EC/NIT-8904065717.xlsx
+++ b/Data/EC/NIT-8904065717.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2C8AD7E-C6DF-476F-A9C4-BF8A74454867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2A4014-03EB-4B0B-8C34-FDC08A8F71F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B2B2EC69-FFC0-41AA-8D67-6EDC7723D3F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C4E93287-1AB3-44FE-87C1-C7A8C08C8BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,226 +71,226 @@
     <t>MARIA ANGELICA CUADRO MARRUGO</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1047486448</t>
+  </si>
+  <si>
+    <t>DAVID GRICE JULIO</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>73123452</t>
+  </si>
+  <si>
+    <t>MANUEL ENRIQUE TORRES BELLIDO</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1047422179</t>
+  </si>
+  <si>
+    <t>YEISER EDUARDO AVILA HEREDIA</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
     <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1047422179</t>
-  </si>
-  <si>
-    <t>YEISER EDUARDO AVILA HEREDIA</t>
-  </si>
-  <si>
-    <t>1047486448</t>
-  </si>
-  <si>
-    <t>DAVID GRICE JULIO</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>73123452</t>
-  </si>
-  <si>
-    <t>MANUEL ENRIQUE TORRES BELLIDO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -389,7 +389,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -402,9 +404,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -604,23 +604,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,10 +648,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,7 +704,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160B7C0C-8ED1-E107-7EB0-127ECC896AB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4A296E-DFFC-703F-34CC-A67A4329D700}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +1055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBA3B3B-2FA1-4A11-91C5-DA2929ADA05B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E26824-44B1-4C9B-8B58-6569E074D2B4}">
   <dimension ref="B2:J111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1233,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>21874</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1256,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1279,7 +1279,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1302,7 +1302,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1325,7 +1325,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1348,7 +1348,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1362,19 +1362,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>24821</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1391,10 +1391,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1408,19 +1408,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1440,7 +1440,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1454,19 +1454,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1477,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1506,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1523,19 +1523,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1552,10 +1552,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1569,19 +1569,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1598,10 +1598,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1615,19 +1615,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1644,10 +1644,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1661,19 +1661,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1690,10 +1690,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1707,19 +1707,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1736,10 +1736,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1753,19 +1753,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1782,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1799,19 +1799,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1822,19 +1822,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>984</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1851,10 +1851,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1868,19 +1868,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1897,10 +1897,10 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1914,19 +1914,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1943,10 +1943,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1960,19 +1960,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1989,10 +1989,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2006,19 +2006,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2035,10 +2035,10 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2052,19 +2052,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2081,10 +2081,10 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2098,19 +2098,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2127,10 +2127,10 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2144,19 +2144,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2173,10 +2173,10 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2190,19 +2190,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F58" s="18">
         <v>27578</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2219,7 +2219,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F59" s="18">
         <v>27578</v>
@@ -2236,19 +2236,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F60" s="18">
         <v>27578</v>
       </c>
       <c r="G60" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2265,7 +2265,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F61" s="18">
         <v>27578</v>
@@ -2288,10 +2288,10 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F62" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2311,10 +2311,10 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2334,10 +2334,10 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2351,19 +2351,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>16666</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2380,10 +2380,10 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2397,19 +2397,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F67" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2426,10 +2426,10 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F68" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2449,10 +2449,10 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F69" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2472,10 +2472,10 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F70" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2495,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F71" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2518,10 +2518,10 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F72" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2541,10 +2541,10 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F73" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2564,10 +2564,10 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F74" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2587,10 +2587,10 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F75" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2610,10 +2610,10 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F76" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2633,10 +2633,10 @@
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F77" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2656,10 +2656,10 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F78" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2679,10 +2679,10 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F79" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2702,10 +2702,10 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F80" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2725,10 +2725,10 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F81" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2748,10 +2748,10 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F82" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2765,19 +2765,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2788,19 +2788,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F84" s="18">
-        <v>16666</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2811,19 +2811,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F85" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2834,19 +2834,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F86" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2857,19 +2857,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F87" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2880,19 +2880,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F88" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2903,19 +2903,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F89" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2926,19 +2926,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F90" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2949,19 +2949,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F91" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2972,19 +2972,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F92" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2995,19 +2995,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F93" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3018,19 +3018,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F94" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3041,19 +3041,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F95" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3064,19 +3064,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F96" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3087,19 +3087,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F97" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3110,19 +3110,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F98" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3133,19 +3133,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F99" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3156,19 +3156,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F100" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3179,19 +3179,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D101" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="F101" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3202,19 +3202,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="16" t="s">
-        <v>70</v>
-      </c>
       <c r="F102" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3225,19 +3225,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F103" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3248,19 +3248,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F104" s="18">
-        <v>24821</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3271,19 +3271,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D105" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E105" s="22" t="s">
-        <v>63</v>
-      </c>
       <c r="F105" s="24">
-        <v>984</v>
+        <v>21874</v>
       </c>
       <c r="G105" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
